--- a/Bases/XF2020.xlsx
+++ b/Bases/XF2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiareyesmunoz/Downloads/Trabajos universidad/Cuarto Semestre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C58236-9A0D-A04C-927D-FBFDB69C8052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1754F449-27A3-E943-B761-C2B9A9F20E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{893594A2-C5C5-2744-B3B3-D1D2FBB53678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>variacion 1</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>Mes</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,273 +433,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AF0713-C540-D941-8285-395B09C8C66F}">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>2018</v>
+        <v>115.6</v>
       </c>
       <c r="C2">
-        <v>2019</v>
+        <v>101.2</v>
       </c>
       <c r="D2">
-        <v>2020</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+        <v>97.5</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>-3.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>115.6</v>
+        <v>246.5</v>
       </c>
       <c r="C3">
-        <v>101.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="D3">
-        <v>97.5</v>
+        <v>179.4</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>12.9</v>
       </c>
       <c r="F3">
-        <v>-3.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>246.5</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="C4">
-        <v>158.19999999999999</v>
+        <v>151.4</v>
       </c>
       <c r="D4">
-        <v>179.4</v>
+        <v>153</v>
       </c>
       <c r="E4">
-        <v>12.9</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="F4">
-        <v>13.4</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>140.30000000000001</v>
+        <v>119.9</v>
       </c>
       <c r="C5">
-        <v>151.4</v>
+        <v>107.4</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>107.4</v>
       </c>
       <c r="E5">
-        <v>-8.1999999999999993</v>
+        <v>43.2</v>
       </c>
       <c r="F5">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>119.9</v>
+        <v>169.6</v>
       </c>
       <c r="C6">
-        <v>107.4</v>
+        <v>699.6</v>
       </c>
       <c r="D6">
-        <v>107.4</v>
+        <v>683.1</v>
       </c>
       <c r="E6">
-        <v>43.2</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>169.6</v>
+        <v>159.1</v>
       </c>
       <c r="C7">
-        <v>699.6</v>
+        <v>133.9</v>
       </c>
       <c r="D7">
-        <v>683.1</v>
+        <v>100.5</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>-15.3</v>
       </c>
       <c r="F7">
-        <v>-2.4</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>159.1</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="C8">
-        <v>133.9</v>
+        <v>107.7</v>
       </c>
       <c r="D8">
-        <v>100.5</v>
+        <v>106.6</v>
       </c>
       <c r="E8">
-        <v>-15.3</v>
+        <v>39.9</v>
       </c>
       <c r="F8">
-        <v>-24.9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>143.69999999999999</v>
+        <v>99.9</v>
       </c>
       <c r="C9">
-        <v>107.7</v>
+        <v>127.5</v>
       </c>
       <c r="D9">
-        <v>106.6</v>
+        <v>92.5</v>
       </c>
       <c r="E9">
-        <v>39.9</v>
+        <v>-19</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>-27.4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>99.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>127.5</v>
+        <v>93.7</v>
       </c>
       <c r="D10">
-        <v>92.5</v>
+        <v>108.3</v>
       </c>
       <c r="E10">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-27.4</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>101.9</v>
       </c>
       <c r="C11">
-        <v>93.7</v>
+        <v>103.6</v>
       </c>
       <c r="D11">
-        <v>108.3</v>
+        <v>101.1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F11">
-        <v>15.6</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>101.9</v>
+        <v>100.1</v>
       </c>
       <c r="C12">
-        <v>103.6</v>
+        <v>121</v>
       </c>
       <c r="D12">
-        <v>101.1</v>
+        <v>125.5</v>
       </c>
       <c r="E12">
-        <v>10.199999999999999</v>
+        <v>-12.4</v>
       </c>
       <c r="F12">
-        <v>-2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>100.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>121</v>
+        <v>101.4</v>
       </c>
       <c r="D13">
-        <v>125.5</v>
+        <v>105.7</v>
       </c>
       <c r="E13">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>101.4</v>
-      </c>
-      <c r="D14">
-        <v>105.7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
         <v>4.3</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Bases/XF2020.xlsx
+++ b/Bases/XF2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1754F449-27A3-E943-B761-C2B9A9F20E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99F9BE-C2A7-5944-9698-768708C3C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{893594A2-C5C5-2744-B3B3-D1D2FBB53678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>variacion 1</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>variacion 2</t>
-  </si>
-  <si>
-    <t>q</t>
   </si>
   <si>
     <t>Mes</t>
@@ -433,17 +430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AF0713-C540-D941-8285-395B09C8C66F}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -699,11 +696,6 @@
       </c>
       <c r="F13">
         <v>4.3</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
